--- a/data/trans_camb/P5_3-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P5_3-Edad-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>-3,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>-1,65</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-19,22; 17,33</t>
+          <t>-23,73; 24,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,91; 15,36</t>
+          <t>-23,44; 18,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,1; 11,65</t>
+          <t>-17,79; 15,57</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,53%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,74%</t>
+          <t>-7,39%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,56%</t>
+          <t>-4,33%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-41,3; 61,7</t>
+          <t>-54,77; 116,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-38,29; 52,93</t>
+          <t>-46,86; 62,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-28,62; 39,18</t>
+          <t>-37,75; 52,49</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>0,83</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 9,3</t>
+          <t>-11,43; 14,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,86; 12,24</t>
+          <t>-13,88; 14,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 8,64</t>
+          <t>-8,12; 10,68</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,67%</t>
+          <t>13,81%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>6,48%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-63,84; 228,86</t>
+          <t>-70,49; 365,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-43,97; 110,18</t>
+          <t>-60,6; 160,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-39,58; 89,47</t>
+          <t>-47,97; 141,07</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,5</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,16</t>
+          <t>0,61</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 26,55</t>
+          <t>-14,81; 14,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 11,3</t>
+          <t>-10,35; 12,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 12,69</t>
+          <t>-8,85; 8,68</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>34,62%</t>
+          <t>-0,25%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>16,62%</t>
+          <t>2,71%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-35,68; 214,25</t>
+          <t>-54,51; 108,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-31,71; 64,84</t>
+          <t>-37,04; 70,48</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-21,26; 74,99</t>
+          <t>-33,48; 48,13</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>-0,44</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-11,25; 11,21</t>
+          <t>-13,38; 12,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 9,43</t>
+          <t>-14,16; 10,97</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 7,7</t>
+          <t>-9,04; 8,14</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>-0,91%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>-2,34%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>-1,71%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-33,93; 51,96</t>
+          <t>-44,72; 73,73</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-28,5; 43,55</t>
+          <t>-41,36; 52,37</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-22,96; 33,25</t>
+          <t>-29,02; 38,98</t>
         </is>
       </c>
     </row>
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>-0,11</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-11,66; 12,58</t>
+          <t>-15,93; 14,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-11,87; 10,87</t>
+          <t>-19,51; 15,57</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 8,16</t>
+          <t>-12,08; 11,9</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-0,6%</t>
+          <t>-0,82%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-2,65%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-1,29%</t>
+          <t>-0,39%</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-35,36; 60,77</t>
+          <t>-47,41; 76,17</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-44,01; 70,25</t>
+          <t>-48,92; 75,56</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-27,58; 41,06</t>
+          <t>-37,8; 56,8</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-1,73</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>0,99</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-14,3; 15,23</t>
+          <t>-19,03; 24,72</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-13,62; 11,2</t>
+          <t>-18,4; 20,92</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-10,34; 9,35</t>
+          <t>-13,22; 15,51</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-7,63%</t>
+          <t>-0,82%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-3,3%</t>
+          <t>3,29%</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-33,75; 64,85</t>
+          <t>-41,4; 93,89</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-47,06; 76,85</t>
+          <t>-58,69; 172,74</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-32,49; 42,39</t>
+          <t>-36,2; 67,47</t>
         </is>
       </c>
     </row>
@@ -1132,17 +1132,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,01</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 6,72</t>
+          <t>-6,29; 7,59</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 4,52</t>
+          <t>-6,93; 5,36</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 4,26</t>
+          <t>-4,33; 4,72</t>
         </is>
       </c>
     </row>
@@ -1178,17 +1178,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-0,05%</t>
+          <t>-1,74%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>0,03%</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,24 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-17,5; 31,19</t>
+          <t>-23,73; 36,33</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-17,57; 21,03</t>
+          <t>-24,84; 23,43</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-11,88; 18,99</t>
+          <t>-16,14; 20,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P5_3-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P5_3-Edad-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,34</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-3,0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-1,65</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-1.775736056614929</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-5.469261281760829</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-3.910701516468812</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-23,73; 24,54</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-23,44; 18,24</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-17,79; 15,57</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-25.53815742046562</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-25.90567466392392</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-20.26954711321715</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,97%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-7,39%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-4,33%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>21.7490813560159</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>14.67569777631475</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>12.11837677470855</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-54,77; 116,58</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-46,86; 62,72</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-37,75; 52,49</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.05141090048362443</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.1347757732325161</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.1028411330946129</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,31</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,32</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,83</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.5789110787803831</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.503564865671137</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.4285467381171321</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-11,43; 14,4</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-13,88; 14,6</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-8,12; 10,68</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.9967634594118151</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.5181580839617893</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.4218875122438502</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>13,81%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,98%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>6,48%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>3.836398630056885</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.7054246041942852</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.551080770411115</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-70,49; 365,01</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-60,6; 160,48</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-47,97; 141,07</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-10.07264504077777</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-14.13517077254837</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-7.536484639256765</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,05</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,97</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,61</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>22.86937364457704</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>13.2779654054264</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>13.17198567744687</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-14,81; 14,73</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-10,35; 12,92</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-8,85; 8,68</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.4052638604506325</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.04390854758556618</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.1219108280598928</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-0,25%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>4,22%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>2,71%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.6890192577058717</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.6166313889632973</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.4447502792900045</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-54,51; 108,94</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-37,04; 70,48</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-33,48; 48,13</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>6.738260512038066</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>1.543741400692074</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>1.619550423143437</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,287 +775,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-0,22</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-0,62</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-0,44</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>1.751151821123054</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>2.092980136572867</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>1.96916280117132</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-13,38; 12,82</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-14,16; 10,97</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-9,04; 8,14</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-13.86163282865332</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-9.449412002900759</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-7.644148115328774</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-0,91%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-2,34%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-1,71%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>18.06287224931274</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>14.86611332643063</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>10.49493937980207</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-44,72; 73,73</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-41,36; 52,37</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-29,02; 38,98</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.08228451681420114</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.09062472250433058</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.08798152350841885</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-0,21</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>0,05</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-0,11</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.5213299761280884</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.3296238018671065</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.2920375858756201</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-15,93; 14,0</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-19,51; 15,57</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-12,08; 11,9</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>1.331028823503993</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.8134197131876462</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.5829399036969419</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-0,82%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>0,18%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-0,39%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-0.6063214123433081</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.06493667297320371</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-0.2318718676808829</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-47,41; 76,17</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-48,92; 75,56</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-37,8; 56,8</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-13.77144231873673</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-13.47859861207181</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-8.647137933442076</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>2,94</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-0,2</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>0,99</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>12.34244340400815</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>12.1080374748883</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>9.001656029566812</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-19,03; 24,72</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-18,4; 20,92</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-13,22; 15,51</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.02478566897059449</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.002433684904648225</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.00903649333515421</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>7,83%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-0,82%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>3,29%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.4571832585446628</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.3963669276435289</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.288645625404049</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-41,4; 93,89</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-58,69; 172,74</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-36,2; 67,47</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.7305950032219575</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.5840483384980623</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.4417760566376245</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1130,93 +987,315 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>0,53</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>-0,45</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>0,01</t>
-        </is>
+      <c r="C28" s="5" t="n">
+        <v>-1.763163961594677</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>0.6660735381562033</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>-0.7406699100462377</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>-6,29; 7,59</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>-6,93; 5,36</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>-4,33; 4,72</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>-17.31813414655917</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>-18.76898817779045</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>-12.92915477897514</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>2,21%</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>-1,74%</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>0,03%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>12.04918054775585</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>16.68934172764225</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>11.16582430053994</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>-23,73; 36,33</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>-24,84; 23,43</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-16,14; 20,89</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>-0.06771110558343948</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>0.02330635612674439</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>-0.02730704409477514</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>-0.5080622538135594</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>-0.4786004220648171</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>-0.4014452560693612</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>0.6143083897468357</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>0.8289346814988119</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>0.5245613304474195</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>7.789165302799134</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>0.8189915260818303</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>4.218172066056402</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>-14.35463042606034</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>-17.50624666829838</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>-10.85668517570686</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>29.47096904505823</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>22.75761689755639</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>18.9196353744425</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>0.2075839315372549</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>0.0342937111490387</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>0.1400364135072008</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="n">
+        <v>-0.3210256910084287</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>-0.5673155747367472</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>-0.3052494292728803</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="n">
+        <v>1.153649999525569</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>1.939619234322211</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>0.8228300372365569</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>1.126521704655506</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>-0.1891821552465756</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>0.4219499466895149</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>-6.12908091210989</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>-6.722301984365586</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>-4.188671838103008</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>8.479472065453077</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>5.864990342760953</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>5.40622743630442</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>0.04663385446316488</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>-0.007297306054471502</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>0.01680924497220429</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>-0.2228676180095386</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>-0.2373750539010491</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>-0.1524597041017703</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>0.408104537519707</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>0.254354768481388</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>0.2300172709857289</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1224,14 +1303,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
